--- a/Industrials/HEICO.xlsx
+++ b/Industrials/HEICO.xlsx
@@ -1,39 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Industrials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F682EA5B-E50A-224D-A07A-8F6CC5F1ABC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B867963F-7F6D-D846-93D5-5BFD456882F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">'Sheet 1'!$A$106</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'Sheet 1'!$A$19</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">'Sheet 1'!$B$3:$AM$3</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">'Sheet 1'!$A$106</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">'Sheet 1'!$A$19</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">'Sheet 1'!$A$3</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">'Sheet 1'!$B$106:$AM$106</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">'Sheet 1'!$B$19:$AM$19</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">'Sheet 1'!$B$3:$AM$3</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'Sheet 1'!$B$106:$AM$106</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'Sheet 1'!$B$19:$AM$19</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">'Sheet 1'!$B$3:$AM$3</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">'Sheet 1'!$A$106</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">'Sheet 1'!$A$19</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">'Sheet 1'!$A$3</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">'Sheet 1'!$B$106:$AM$106</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">'Sheet 1'!$B$19:$AM$19</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -51,8 +32,45 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="2">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <futureMetadata name="XLRICHVALUE" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="2"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+  <valueMetadata count="1">
+    <bk>
+      <rc t="2" v="0"/>
+    </bk>
+  </valueMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1364" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1363" uniqueCount="160">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -334,9 +352,6 @@
   </si>
   <si>
     <t>link</t>
-  </si>
-  <si>
-    <t>HEICO</t>
   </si>
   <si>
     <t>Revenue Growth YoY</t>
@@ -883,7 +898,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -947,18 +962,6 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -968,10 +971,6 @@
     </xf>
     <xf numFmtId="10" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="39" fontId="11" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="10" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
@@ -995,12 +994,6 @@
     <xf numFmtId="10" fontId="1" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1012,10 +1005,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="167" fontId="12" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="1" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1025,6 +1014,26 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="39" fontId="11" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="1" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2400,6 +2409,441 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
+<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <global>
+    <keyFlags>
+      <key name="_Self">
+        <flag name="ExcludeFromFile" value="1"/>
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_DisplayString">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Flags">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Format">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_SubLabel">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Attribution">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Icon">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Display">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_CanonicalPropertyNames">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_ClassificationId">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+    </keyFlags>
+  </global>
+  <types>
+    <type name="_linkedentity">
+      <keyFlags>
+        <key name="%cvi">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+          <flag name="ExcludeFromCalcComparison" value="1"/>
+        </key>
+      </keyFlags>
+    </type>
+    <type name="_linkedentitycore">
+      <keyFlags>
+        <key name="%EntityServiceId">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%EntitySubDomainId">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%EntityCulture">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%EntityId">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%IsRefreshable">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+          <flag name="ExcludeFromCalcComparison" value="1"/>
+        </key>
+        <key name="%ProviderInfo">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%DataProviderExternalLinkLogo">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%DataProviderExternalLink">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%OutdatedReason">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+          <flag name="ExcludeFromCalcComparison" value="1"/>
+        </key>
+      </keyFlags>
+    </type>
+  </types>
+</rvTypesInfo>
+</file>
+
+<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="3">
+  <rv s="0">
+    <v>https://www.bing.com/financeapi/forcetrigger?t=a1ulc7&amp;q=XNYS%3aHEI.A&amp;form=skydnc</v>
+    <v>Learn more on Bing</v>
+  </rv>
+  <rv s="1">
+    <v>0</v>
+    <v>HEICO CORPORATION (XNYS:HEI.A)</v>
+    <v>2</v>
+    <v>3</v>
+    <v>Finance</v>
+    <v>4</v>
+    <v>en-US</v>
+    <v>a1ulc7</v>
+    <v>268435456</v>
+    <v>1</v>
+    <v>Powered by Refinitiv</v>
+    <v>143.42500000000001</v>
+    <v>102.33</v>
+    <v>1.1809000000000001</v>
+    <v>-1.49</v>
+    <v>-1.1387000000000001E-2</v>
+    <v>0</v>
+    <v>0</v>
+    <v>USD</v>
+    <v>HEICO Corporation is a manufacturer of jet engine and aircraft component replacement parts. The Company operates through two segments: Flight Support Group (FSG) and Electronic Technologies Group (ETG). The FSG segment consists of HEICO Aerospace Holdings Corp. and HEICO Flight Support Corp. and their subsidiaries. The FSG segment designs and manufactures jet engine and aircraft component replacement parts. In addition, the FSG segment repairs, overhauls and distributes jet engine and aircraft components, avionics and instruments for domestic and foreign commercial air carriers and aircraft repair companies, as well as military and business aircraft operators. The ETG segment consists of HEICO Electronic Technologies Corp. and its subsidiaries. ETG segment designs, manufactures and sells various types of electronic, data and microwave, and electro-optical products, including infrared simulation and test equipment, laser rangefinder receivers and electrical power supplies.</v>
+    <v>6500</v>
+    <v>New York Stock Exchange</v>
+    <v>XNYS</v>
+    <v>XNYS</v>
+    <v>3000 Taft St, HOLLYWOOD, FL, 33021 US</v>
+    <v>130.61000000000001</v>
+    <v>Aerospace &amp; Defense</v>
+    <v>Stock</v>
+    <v>45070.958333344533</v>
+    <v>0</v>
+    <v>127.63</v>
+    <v>19784160000</v>
+    <v>HEICO CORPORATION</v>
+    <v>HEICO CORPORATION</v>
+    <v>130.53</v>
+    <v>130.85</v>
+    <v>129.36000000000001</v>
+    <v>129.36000000000001</v>
+    <v>136990900</v>
+    <v>HEI.A</v>
+    <v>HEICO CORPORATION (XNYS:HEI.A)</v>
+    <v>206723</v>
+    <v>214188</v>
+    <v>1993</v>
+  </rv>
+  <rv s="2">
+    <v>1</v>
+  </rv>
+</rvData>
+</file>
+
+<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="3">
+  <s t="_hyperlink">
+    <k n="Address" t="s"/>
+    <k n="Text" t="s"/>
+  </s>
+  <s t="_linkedentitycore">
+    <k n="_Display" t="spb"/>
+    <k n="_DisplayString" t="s"/>
+    <k n="_Flags" t="spb"/>
+    <k n="_Format" t="spb"/>
+    <k n="_Icon" t="s"/>
+    <k n="_SubLabel" t="spb"/>
+    <k n="%EntityCulture" t="s"/>
+    <k n="%EntityId" t="s"/>
+    <k n="%EntityServiceId"/>
+    <k n="%IsRefreshable" t="b"/>
+    <k n="%ProviderInfo" t="s"/>
+    <k n="52 week high"/>
+    <k n="52 week low"/>
+    <k n="Beta"/>
+    <k n="Change"/>
+    <k n="Change (%)"/>
+    <k n="Change (Extended hours)"/>
+    <k n="Change % (Extended hours)"/>
+    <k n="Currency" t="s"/>
+    <k n="Description" t="s"/>
+    <k n="Employees"/>
+    <k n="Exchange" t="s"/>
+    <k n="Exchange abbreviation" t="s"/>
+    <k n="ExchangeID" t="s"/>
+    <k n="Headquarters" t="s"/>
+    <k n="High"/>
+    <k n="Industry" t="s"/>
+    <k n="Instrument type" t="s"/>
+    <k n="Last trade time"/>
+    <k n="LearnMoreOnLink" t="r"/>
+    <k n="Low"/>
+    <k n="Market cap"/>
+    <k n="Name" t="s"/>
+    <k n="Official name" t="s"/>
+    <k n="Open"/>
+    <k n="Previous close"/>
+    <k n="Price"/>
+    <k n="Price (Extended hours)"/>
+    <k n="Shares outstanding"/>
+    <k n="Ticker symbol" t="s"/>
+    <k n="UniqueName" t="s"/>
+    <k n="Volume"/>
+    <k n="Volume average"/>
+    <k n="Year incorporated"/>
+  </s>
+  <s t="_linkedentity">
+    <k n="%cvi" t="r"/>
+  </s>
+</rvStructures>
+</file>
+
+<file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
+<supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
+  <spbArrays count="1">
+    <a count="44">
+      <v t="s">%EntityServiceId</v>
+      <v t="s">_Format</v>
+      <v t="s">%IsRefreshable</v>
+      <v t="s">%EntityCulture</v>
+      <v t="s">%EntityId</v>
+      <v t="s">_Icon</v>
+      <v t="s">_Display</v>
+      <v t="s">Name</v>
+      <v t="s">_SubLabel</v>
+      <v t="s">Price</v>
+      <v t="s">Price (Extended hours)</v>
+      <v t="s">Exchange</v>
+      <v t="s">Official name</v>
+      <v t="s">Last trade time</v>
+      <v t="s">Ticker symbol</v>
+      <v t="s">Exchange abbreviation</v>
+      <v t="s">Change</v>
+      <v t="s">Change (Extended hours)</v>
+      <v t="s">Change (%)</v>
+      <v t="s">Change % (Extended hours)</v>
+      <v t="s">Currency</v>
+      <v t="s">Previous close</v>
+      <v t="s">Open</v>
+      <v t="s">High</v>
+      <v t="s">Low</v>
+      <v t="s">52 week high</v>
+      <v t="s">52 week low</v>
+      <v t="s">Volume</v>
+      <v t="s">Volume average</v>
+      <v t="s">Market cap</v>
+      <v t="s">Beta</v>
+      <v t="s">Shares outstanding</v>
+      <v t="s">Description</v>
+      <v t="s">Employees</v>
+      <v t="s">Headquarters</v>
+      <v t="s">Industry</v>
+      <v t="s">Instrument type</v>
+      <v t="s">Year incorporated</v>
+      <v t="s">_Flags</v>
+      <v t="s">UniqueName</v>
+      <v t="s">_DisplayString</v>
+      <v t="s">LearnMoreOnLink</v>
+      <v t="s">ExchangeID</v>
+      <v t="s">%ProviderInfo</v>
+    </a>
+  </spbArrays>
+  <spbData count="5">
+    <spb s="0">
+      <v>0</v>
+      <v>Name</v>
+      <v>LearnMoreOnLink</v>
+    </spb>
+    <spb s="1">
+      <v>0</v>
+      <v>0</v>
+      <v>0</v>
+    </spb>
+    <spb s="2">
+      <v>1</v>
+      <v>1</v>
+      <v>1</v>
+      <v>1</v>
+    </spb>
+    <spb s="3">
+      <v>1</v>
+      <v>2</v>
+      <v>1</v>
+      <v>3</v>
+      <v>1</v>
+      <v>1</v>
+      <v>1</v>
+      <v>4</v>
+      <v>4</v>
+      <v>5</v>
+      <v>6</v>
+      <v>1</v>
+      <v>1</v>
+      <v>1</v>
+      <v>4</v>
+      <v>7</v>
+      <v>8</v>
+      <v>9</v>
+      <v>4</v>
+      <v>1</v>
+      <v>1</v>
+      <v>5</v>
+    </spb>
+    <spb s="4">
+      <v>at close</v>
+      <v>from previous close</v>
+      <v>from previous close</v>
+      <v>Source: Nasdaq Last Sale</v>
+      <v>GMT</v>
+      <v>Real-Time Nasdaq Last Sale</v>
+      <v>from close</v>
+      <v>from close</v>
+    </spb>
+  </spbData>
+</supportingPropertyBags>
+</file>
+
+<file path=xl/richData/rdsupportingpropertybagstructure.xml><?xml version="1.0" encoding="utf-8"?>
+<spbStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="5">
+  <s>
+    <k n="^Order" t="spba"/>
+    <k n="TitleProperty" t="s"/>
+    <k n="SubTitleProperty" t="s"/>
+  </s>
+  <s>
+    <k n="ShowInCardView" t="b"/>
+    <k n="ShowInDotNotation" t="b"/>
+    <k n="ShowInAutoComplete" t="b"/>
+  </s>
+  <s>
+    <k n="ExchangeID" t="spb"/>
+    <k n="UniqueName" t="spb"/>
+    <k n="`%ProviderInfo" t="spb"/>
+    <k n="LearnMoreOnLink" t="spb"/>
+  </s>
+  <s>
+    <k n="Low" t="i"/>
+    <k n="Beta" t="i"/>
+    <k n="High" t="i"/>
+    <k n="Name" t="i"/>
+    <k n="Open" t="i"/>
+    <k n="Price" t="i"/>
+    <k n="Change" t="i"/>
+    <k n="Volume" t="i"/>
+    <k n="Employees" t="i"/>
+    <k n="Change (%)" t="i"/>
+    <k n="Market cap" t="i"/>
+    <k n="52 week low" t="i"/>
+    <k n="52 week high" t="i"/>
+    <k n="Previous close" t="i"/>
+    <k n="Volume average" t="i"/>
+    <k n="Last trade time" t="i"/>
+    <k n="Year incorporated" t="i"/>
+    <k n="`%EntityServiceId" t="i"/>
+    <k n="Shares outstanding" t="i"/>
+    <k n="Price (Extended hours)" t="i"/>
+    <k n="Change (Extended hours)" t="i"/>
+    <k n="Change % (Extended hours)" t="i"/>
+  </s>
+  <s>
+    <k n="Price" t="s"/>
+    <k n="Change" t="s"/>
+    <k n="Change (%)" t="s"/>
+    <k n="ExchangeID" t="s"/>
+    <k n="Last trade time" t="s"/>
+    <k n="Price (Extended hours)" t="s"/>
+    <k n="Change (Extended hours)" t="s"/>
+    <k n="Change % (Extended hours)" t="s"/>
+  </s>
+</spbStructures>
+</file>
+
+<file path=xl/richData/richStyles.xml><?xml version="1.0" encoding="utf-8"?>
+<richStyleSheet xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <dxfs count="7">
+    <x:dxf>
+      <x:numFmt numFmtId="2" formatCode="0.00"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="0" formatCode="General"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="27" formatCode="m/d/yy\ h:mm"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="14" formatCode="0.00%"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="3" formatCode="#,##0"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="1" formatCode="0"/>
+    </x:dxf>
+  </dxfs>
+  <richProperties>
+    <rPr n="NumberFormat" t="s"/>
+    <rPr n="IsTitleField" t="b"/>
+  </richProperties>
+  <richStyles>
+    <rSty dxfid="1">
+      <rpv i="0">_([$$-en-US]* #,##0.00_);_([$$-en-US]* (#,##0.00);_([$$-en-US]* "-"??_);_(@_)</rpv>
+    </rSty>
+    <rSty dxfid="5">
+      <rpv i="0">#,##0.00</rpv>
+    </rSty>
+    <rSty>
+      <rpv i="1">1</rpv>
+    </rSty>
+    <rSty dxfid="4">
+      <rpv i="0">#,##0</rpv>
+    </rSty>
+    <rSty dxfid="3"/>
+    <rSty dxfid="1">
+      <rpv i="0">_([$$-en-US]* #,##0_);_([$$-en-US]* (#,##0);_([$$-en-US]* "-"_);_(@_)</rpv>
+    </rSty>
+    <rSty dxfid="2"/>
+    <rSty dxfid="6">
+      <rpv i="0">0</rpv>
+    </rSty>
+    <rSty dxfid="0">
+      <rpv i="0">0.00</rpv>
+    </rSty>
+  </richStyles>
+</richStyleSheet>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2700,10 +3144,10 @@
   <dimension ref="A1:AV118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AL98" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AJ2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AO129" sqref="AO129"/>
+      <selection pane="bottomRight" activeCell="AP23" sqref="AP23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2714,8 +3158,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:48" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>94</v>
+      <c r="A1" s="3" t="e" vm="1">
+        <v>#VALUE!</v>
       </c>
       <c r="B1" s="8">
         <v>1985</v>
@@ -3111,21 +3555,21 @@
         <v>3404000000</v>
       </c>
       <c r="AS3" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="AT3" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="AT3" s="19" t="s">
+      <c r="AU3" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="AU3" s="19" t="s">
+      <c r="AV3" s="19" t="s">
         <v>112</v>
-      </c>
-      <c r="AV3" s="19" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:48" ht="19" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="15">
@@ -3551,16 +3995,16 @@
         <v>862759000</v>
       </c>
       <c r="AS6" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="AT6" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="AT6" s="19" t="s">
+      <c r="AU6" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="AU6" s="19" t="s">
+      <c r="AV6" s="19" t="s">
         <v>116</v>
-      </c>
-      <c r="AV6" s="19" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:48" ht="19" x14ac:dyDescent="0.25">
@@ -3819,7 +4263,7 @@
     </row>
     <row r="9" spans="1:48" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B9" s="15">
         <f>B8/B3</f>
@@ -3974,16 +4418,16 @@
         <v>0</v>
       </c>
       <c r="AS9" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="AT9" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="AT9" s="19" t="s">
+      <c r="AU9" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="AU9" s="19" t="s">
+      <c r="AV9" s="19" t="s">
         <v>99</v>
-      </c>
-      <c r="AV9" s="19" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:48" ht="19" x14ac:dyDescent="0.25">
@@ -4359,21 +4803,21 @@
         <v>365915000</v>
       </c>
       <c r="AS12" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="AT12" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="AT12" s="19" t="s">
+      <c r="AU12" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="AU12" s="19" t="s">
+      <c r="AV12" s="19" t="s">
         <v>120</v>
-      </c>
-      <c r="AV12" s="19" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="13" spans="1:48" ht="19" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B13" s="15">
         <f>B12/B3</f>
@@ -4782,16 +5226,16 @@
         <v>365915000</v>
       </c>
       <c r="AS15" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="AT15" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="AT15" s="19" t="s">
+      <c r="AU15" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="AU15" s="19" t="s">
+      <c r="AV15" s="19" t="s">
         <v>124</v>
-      </c>
-      <c r="AV15" s="19" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="16" spans="1:48" ht="19" x14ac:dyDescent="0.25">
@@ -4918,15 +5362,15 @@
       </c>
       <c r="AT16" s="30">
         <f>AU101/AM3</f>
-        <v>10.395020789540656</v>
+        <v>8.9589108834671762</v>
       </c>
       <c r="AU16" s="30">
         <f>AU101/AM28</f>
-        <v>65.274907514039953</v>
+        <v>56.256941778630839</v>
       </c>
       <c r="AV16" s="31">
         <f>AU101/AM106</f>
-        <v>52.665571013641554</v>
+        <v>45.389630948393346</v>
       </c>
     </row>
     <row r="17" spans="1:45" ht="19" x14ac:dyDescent="0.25">
@@ -5167,7 +5611,7 @@
         <v>96333000</v>
       </c>
       <c r="AS18" s="18" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="19" spans="1:45" ht="19" x14ac:dyDescent="0.25">
@@ -5295,7 +5739,7 @@
     </row>
     <row r="20" spans="1:45" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="15">
@@ -6401,7 +6845,7 @@
     </row>
     <row r="29" spans="1:45" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="15">
@@ -7150,7 +7594,7 @@
     </row>
     <row r="35" spans="1:39" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="22">
@@ -12540,7 +12984,7 @@
     </row>
     <row r="80" spans="1:39" ht="19" x14ac:dyDescent="0.25">
       <c r="A80" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B80" s="15" t="e">
         <f t="shared" ref="B80:AM80" si="12">B79/B3</f>
@@ -13051,10 +13495,10 @@
       <c r="AM83" s="1">
         <v>-89186000</v>
       </c>
-      <c r="AT83" s="33" t="s">
-        <v>127</v>
-      </c>
-      <c r="AU83" s="34"/>
+      <c r="AT83" s="62" t="s">
+        <v>126</v>
+      </c>
+      <c r="AU83" s="63"/>
     </row>
     <row r="84" spans="1:47" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -13174,10 +13618,10 @@
       <c r="AM84" s="1">
         <v>25567000</v>
       </c>
-      <c r="AT84" s="35" t="s">
-        <v>128</v>
-      </c>
-      <c r="AU84" s="36"/>
+      <c r="AT84" s="64" t="s">
+        <v>127</v>
+      </c>
+      <c r="AU84" s="65"/>
     </row>
     <row r="85" spans="1:47" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -13298,7 +13742,7 @@
         <v>92</v>
       </c>
       <c r="AT85" s="23" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AU85" s="24">
         <f>AM17</f>
@@ -13424,7 +13868,7 @@
         <v>92</v>
       </c>
       <c r="AT86" s="23" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AU86" s="24">
         <f>AM56</f>
@@ -13550,7 +13994,7 @@
         <v>467856000</v>
       </c>
       <c r="AT87" s="23" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AU87" s="24">
         <f>AM61</f>
@@ -13675,17 +14119,17 @@
       <c r="AM88" s="1">
         <v>0</v>
       </c>
-      <c r="AT88" s="37" t="s">
-        <v>132</v>
-      </c>
-      <c r="AU88" s="38">
+      <c r="AT88" s="33" t="s">
+        <v>131</v>
+      </c>
+      <c r="AU88" s="34">
         <f>AU85/(AU86+AU87)</f>
         <v>2.1999903539414483E-2</v>
       </c>
     </row>
     <row r="89" spans="1:47" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B89" s="15" t="e">
         <f t="shared" ref="B89:AM89" si="13">(-1*B88)/B3</f>
@@ -13840,7 +14284,7 @@
         <v>0</v>
       </c>
       <c r="AT89" s="23" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AU89" s="24">
         <f>AM27</f>
@@ -14091,10 +14535,10 @@
       <c r="AM91" s="1">
         <v>12180000</v>
       </c>
-      <c r="AT91" s="37" t="s">
-        <v>133</v>
-      </c>
-      <c r="AU91" s="38">
+      <c r="AT91" s="33" t="s">
+        <v>132</v>
+      </c>
+      <c r="AU91" s="34">
         <f>AU89/AU90</f>
         <v>0.2220870430791351</v>
       </c>
@@ -14217,10 +14661,10 @@
       <c r="AM92" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AT92" s="39" t="s">
-        <v>134</v>
-      </c>
-      <c r="AU92" s="40">
+      <c r="AT92" s="35" t="s">
+        <v>133</v>
+      </c>
+      <c r="AU92" s="36">
         <f>AU88*(1-AU91)</f>
         <v>1.7114010014319721E-2</v>
       </c>
@@ -14343,10 +14787,10 @@
       <c r="AM93" s="1">
         <v>-60701000</v>
       </c>
-      <c r="AT93" s="35" t="s">
-        <v>135</v>
-      </c>
-      <c r="AU93" s="36"/>
+      <c r="AT93" s="64" t="s">
+        <v>134</v>
+      </c>
+      <c r="AU93" s="65"/>
     </row>
     <row r="94" spans="1:47" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -14467,9 +14911,9 @@
         <v>-395829000</v>
       </c>
       <c r="AT94" s="23" t="s">
-        <v>136</v>
-      </c>
-      <c r="AU94" s="41">
+        <v>135</v>
+      </c>
+      <c r="AU94" s="37">
         <v>4.095E-2</v>
       </c>
     </row>
@@ -14591,11 +15035,12 @@
       <c r="AM95" s="1">
         <v>-50000000</v>
       </c>
-      <c r="AT95" s="42" t="s">
-        <v>137</v>
-      </c>
-      <c r="AU95" s="43">
-        <v>1.18</v>
+      <c r="AT95" s="57" t="s">
+        <v>136</v>
+      </c>
+      <c r="AU95" s="58" cm="1">
+        <f t="array" ref="AU95">_FV(A1,"Beta")</f>
+        <v>1.1809000000000001</v>
       </c>
     </row>
     <row r="96" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -14717,9 +15162,9 @@
         <v>92</v>
       </c>
       <c r="AT96" s="23" t="s">
-        <v>138</v>
-      </c>
-      <c r="AU96" s="41">
+        <v>137</v>
+      </c>
+      <c r="AU96" s="37">
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
@@ -14841,12 +15286,12 @@
       <c r="AM97" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AT97" s="39" t="s">
-        <v>139</v>
-      </c>
-      <c r="AU97" s="40">
+      <c r="AT97" s="35" t="s">
+        <v>138</v>
+      </c>
+      <c r="AU97" s="36">
         <f>(AU94)+((AU95)*(AU96-AU94))</f>
-        <v>9.1748999999999997E-2</v>
+        <v>9.1787745000000004E-2</v>
       </c>
     </row>
     <row r="98" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -14967,10 +15412,10 @@
       <c r="AM98" s="1">
         <v>-24466000</v>
       </c>
-      <c r="AT98" s="35" t="s">
-        <v>140</v>
-      </c>
-      <c r="AU98" s="36"/>
+      <c r="AT98" s="64" t="s">
+        <v>139</v>
+      </c>
+      <c r="AU98" s="65"/>
     </row>
     <row r="99" spans="1:47" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -15091,7 +15536,7 @@
         <v>40633000</v>
       </c>
       <c r="AT99" s="23" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AU99" s="24">
         <f>AU86+AU87</f>
@@ -15216,12 +15661,12 @@
       <c r="AM100" s="10">
         <v>-33833000</v>
       </c>
-      <c r="AT100" s="37" t="s">
-        <v>142</v>
-      </c>
-      <c r="AU100" s="38">
+      <c r="AT100" s="33" t="s">
+        <v>141</v>
+      </c>
+      <c r="AU100" s="34">
         <f>AU99/AU103</f>
-        <v>1.2487144413114902E-2</v>
+        <v>1.4459884647308113E-2</v>
       </c>
     </row>
     <row r="101" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -15342,12 +15787,12 @@
       <c r="AM101" s="1">
         <v>-6988000</v>
       </c>
-      <c r="AT101" s="67" t="s">
-        <v>143</v>
-      </c>
-      <c r="AU101" s="58">
-        <f>AO116*AM34</f>
-        <v>22955553100</v>
+      <c r="AT101" s="57" t="s">
+        <v>142</v>
+      </c>
+      <c r="AU101" s="50" cm="1">
+        <f t="array" ref="AU101">_FV(A1,"Market cap",TRUE)</f>
+        <v>19784160000</v>
       </c>
     </row>
     <row r="102" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -15468,12 +15913,12 @@
       <c r="AM102" s="10">
         <v>31206000</v>
       </c>
-      <c r="AT102" s="37" t="s">
-        <v>144</v>
-      </c>
-      <c r="AU102" s="38">
+      <c r="AT102" s="33" t="s">
+        <v>143</v>
+      </c>
+      <c r="AU102" s="34">
         <f>AU101/AU103</f>
-        <v>0.98751285558688506</v>
+        <v>0.98554011535269193</v>
       </c>
     </row>
     <row r="103" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -15594,12 +16039,12 @@
       <c r="AM103" s="1">
         <v>108298000</v>
       </c>
-      <c r="AT103" s="39" t="s">
-        <v>145</v>
-      </c>
-      <c r="AU103" s="44">
+      <c r="AT103" s="35" t="s">
+        <v>144</v>
+      </c>
+      <c r="AU103" s="38">
         <f>AU99+AU101</f>
-        <v>23245827100</v>
+        <v>20074434000</v>
       </c>
     </row>
     <row r="104" spans="1:47" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -15720,14 +16165,14 @@
       <c r="AM104" s="11">
         <v>139504000</v>
       </c>
-      <c r="AT104" s="35" t="s">
-        <v>146</v>
-      </c>
-      <c r="AU104" s="36"/>
+      <c r="AT104" s="64" t="s">
+        <v>145</v>
+      </c>
+      <c r="AU104" s="65"/>
     </row>
     <row r="105" spans="1:47" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B105" s="1"/>
       <c r="C105" s="15" t="e">
@@ -15885,11 +16330,11 @@
       <c r="AR105" s="15"/>
       <c r="AS105" s="15"/>
       <c r="AT105" s="25" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AU105" s="26">
         <f>(AU100*AU92)+(AU102*AU97)</f>
-        <v>9.0817022101777417E-2</v>
+        <v>9.0707971405923418E-2</v>
       </c>
     </row>
     <row r="106" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -16010,33 +16455,33 @@
       <c r="AM106" s="1">
         <v>435874000</v>
       </c>
-      <c r="AN106" s="45">
+      <c r="AN106" s="39">
         <f>AM106*(1+$AU$106)</f>
         <v>476266369.38275564</v>
       </c>
-      <c r="AO106" s="45">
+      <c r="AO106" s="39">
         <f t="shared" ref="AO106:AR106" si="17">AN106*(1+$AU$106)</f>
         <v>520401892.76036519</v>
       </c>
-      <c r="AP106" s="45">
+      <c r="AP106" s="39">
         <f t="shared" si="17"/>
         <v>568627447.5763483</v>
       </c>
-      <c r="AQ106" s="45">
+      <c r="AQ106" s="39">
         <f t="shared" si="17"/>
         <v>621322056.34786797</v>
       </c>
-      <c r="AR106" s="45">
+      <c r="AR106" s="39">
         <f t="shared" si="17"/>
         <v>678899865.54423296</v>
       </c>
-      <c r="AS106" s="46" t="s">
+      <c r="AS106" s="40" t="s">
+        <v>146</v>
+      </c>
+      <c r="AT106" s="41" t="s">
         <v>147</v>
       </c>
-      <c r="AT106" s="47" t="s">
-        <v>148</v>
-      </c>
-      <c r="AU106" s="48">
+      <c r="AU106" s="42">
         <f>(SUM(AN4:AR4)/5)</f>
         <v>9.2669829773640133E-2</v>
       </c>
@@ -16081,150 +16526,151 @@
       <c r="AK107" s="13"/>
       <c r="AL107" s="13"/>
       <c r="AM107" s="13"/>
-      <c r="AN107" s="46"/>
-      <c r="AO107" s="46"/>
-      <c r="AP107" s="46"/>
-      <c r="AQ107" s="46"/>
-      <c r="AR107" s="49">
+      <c r="AN107" s="40"/>
+      <c r="AO107" s="40"/>
+      <c r="AP107" s="40"/>
+      <c r="AQ107" s="40"/>
+      <c r="AR107" s="43">
         <f>AR106*(1+AU107)/(AU108-AU107)</f>
-        <v>10572832680.074207</v>
-      </c>
-      <c r="AS107" s="50" t="s">
+        <v>10590379634.214479</v>
+      </c>
+      <c r="AS107" s="44" t="s">
+        <v>148</v>
+      </c>
+      <c r="AT107" s="45" t="s">
         <v>149</v>
       </c>
-      <c r="AT107" s="51" t="s">
-        <v>150</v>
-      </c>
-      <c r="AU107" s="52">
+      <c r="AU107" s="46">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="108" spans="1:47" ht="19" x14ac:dyDescent="0.25">
-      <c r="AN108" s="49">
+      <c r="AN108" s="43">
         <f t="shared" ref="AN108:AP108" si="18">AN107+AN106</f>
         <v>476266369.38275564</v>
       </c>
-      <c r="AO108" s="49">
+      <c r="AO108" s="43">
         <f t="shared" si="18"/>
         <v>520401892.76036519</v>
       </c>
-      <c r="AP108" s="49">
+      <c r="AP108" s="43">
         <f t="shared" si="18"/>
         <v>568627447.5763483</v>
       </c>
-      <c r="AQ108" s="49">
+      <c r="AQ108" s="43">
         <f>AQ107+AQ106</f>
         <v>621322056.34786797</v>
       </c>
-      <c r="AR108" s="49">
+      <c r="AR108" s="43">
         <f>AR107+AR106</f>
-        <v>11251732545.618441</v>
-      </c>
-      <c r="AS108" s="50" t="s">
-        <v>145</v>
-      </c>
-      <c r="AT108" s="53" t="s">
-        <v>151</v>
-      </c>
-      <c r="AU108" s="54">
+        <v>11269279499.758713</v>
+      </c>
+      <c r="AS108" s="44" t="s">
+        <v>144</v>
+      </c>
+      <c r="AT108" s="47" t="s">
+        <v>150</v>
+      </c>
+      <c r="AU108" s="48">
         <f>AU105</f>
-        <v>9.0817022101777417E-2</v>
+        <v>9.0707971405923418E-2</v>
       </c>
     </row>
     <row r="109" spans="1:47" ht="19" x14ac:dyDescent="0.25">
-      <c r="AN109" s="55" t="s">
-        <v>152</v>
-      </c>
-      <c r="AO109" s="56"/>
+      <c r="AN109" s="60" t="s">
+        <v>151</v>
+      </c>
+      <c r="AO109" s="61"/>
     </row>
     <row r="110" spans="1:47" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN110" s="57" t="s">
-        <v>153</v>
-      </c>
-      <c r="AO110" s="58">
+      <c r="AN110" s="49" t="s">
+        <v>152</v>
+      </c>
+      <c r="AO110" s="50">
         <f>NPV(AU108,AN108,AO108,AP108,AQ108,AR108)</f>
-        <v>9036420607.7597466</v>
+        <v>9051868833.4846783</v>
       </c>
     </row>
     <row r="111" spans="1:47" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN111" s="57" t="s">
-        <v>154</v>
-      </c>
-      <c r="AO111" s="58">
+      <c r="AN111" s="49" t="s">
+        <v>153</v>
+      </c>
+      <c r="AO111" s="50">
         <f>AM40</f>
         <v>139504000</v>
       </c>
     </row>
     <row r="112" spans="1:47" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN112" s="57" t="s">
-        <v>141</v>
-      </c>
-      <c r="AO112" s="58">
+      <c r="AN112" s="49" t="s">
+        <v>140</v>
+      </c>
+      <c r="AO112" s="50">
         <f>AU99</f>
         <v>290274000</v>
       </c>
     </row>
     <row r="113" spans="40:41" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN113" s="57" t="s">
-        <v>155</v>
-      </c>
-      <c r="AO113" s="58">
+      <c r="AN113" s="49" t="s">
+        <v>154</v>
+      </c>
+      <c r="AO113" s="50">
         <f>AO110+AO111-AO112</f>
-        <v>8885650607.7597466</v>
+        <v>8901098833.4846783</v>
       </c>
     </row>
     <row r="114" spans="40:41" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN114" s="57" t="s">
-        <v>156</v>
-      </c>
-      <c r="AO114" s="59">
+      <c r="AN114" s="49" t="s">
+        <v>155</v>
+      </c>
+      <c r="AO114" s="51">
         <f>AM34*(1+(5*AS16))</f>
         <v>140515899.55477726</v>
       </c>
     </row>
     <row r="115" spans="40:41" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN115" s="60" t="s">
-        <v>157</v>
-      </c>
-      <c r="AO115" s="61">
+      <c r="AN115" s="52" t="s">
+        <v>156</v>
+      </c>
+      <c r="AO115" s="53">
         <f>AO113/AO114</f>
-        <v>63.235908789779742</v>
+        <v>63.34584813311298</v>
       </c>
     </row>
     <row r="116" spans="40:41" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN116" s="62" t="s">
-        <v>158</v>
-      </c>
-      <c r="AO116" s="63">
-        <v>166.3</v>
+      <c r="AN116" s="49" t="s">
+        <v>157</v>
+      </c>
+      <c r="AO116" s="59" cm="1">
+        <f t="array" ref="AO116">_FV(A1,"Price")</f>
+        <v>129.36000000000001</v>
       </c>
     </row>
     <row r="117" spans="40:41" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN117" s="64" t="s">
-        <v>159</v>
-      </c>
-      <c r="AO117" s="65">
+      <c r="AN117" s="54" t="s">
+        <v>158</v>
+      </c>
+      <c r="AO117" s="55">
         <f>AO115/AO116-1</f>
-        <v>-0.6197479928455818</v>
+        <v>-0.51031348072732707</v>
       </c>
     </row>
     <row r="118" spans="40:41" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN118" s="64" t="s">
-        <v>160</v>
-      </c>
-      <c r="AO118" s="66" t="str">
+      <c r="AN118" s="54" t="s">
+        <v>159</v>
+      </c>
+      <c r="AO118" s="56" t="str">
         <f>IF(AO115&gt;AO116,"BUY","SELL")</f>
         <v>SELL</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="AN109:AO109"/>
     <mergeCell ref="AT83:AU83"/>
     <mergeCell ref="AT84:AU84"/>
     <mergeCell ref="AT93:AU93"/>
     <mergeCell ref="AT98:AU98"/>
     <mergeCell ref="AT104:AU104"/>
-    <mergeCell ref="AN109:AO109"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" tooltip="https://roic.ai/company/HEI" display="ROIC.AI | HEI" xr:uid="{00000000-0004-0000-0000-000000000000}"/>

--- a/Industrials/HEICO.xlsx
+++ b/Industrials/HEICO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Industrials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B867963F-7F6D-D846-93D5-5BFD456882F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0041BD65-B334-D041-A146-667C92AD5C23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2531,9 +2531,9 @@
     <v>Powered by Refinitiv</v>
     <v>143.42500000000001</v>
     <v>102.33</v>
-    <v>1.1809000000000001</v>
-    <v>-1.49</v>
-    <v>-1.1387000000000001E-2</v>
+    <v>1.1802999999999999</v>
+    <v>-1.91</v>
+    <v>-1.4914E-2</v>
     <v>0</v>
     <v>0</v>
     <v>USD</v>
@@ -2543,24 +2543,24 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>3000 Taft St, HOLLYWOOD, FL, 33021 US</v>
-    <v>130.61000000000001</v>
+    <v>129.44999999999999</v>
     <v>Aerospace &amp; Defense</v>
     <v>Stock</v>
-    <v>45070.958333344533</v>
+    <v>45072.958333356248</v>
     <v>0</v>
-    <v>127.63</v>
-    <v>19784160000</v>
+    <v>125.88</v>
+    <v>19095720000</v>
     <v>HEICO CORPORATION</v>
     <v>HEICO CORPORATION</v>
-    <v>130.53</v>
-    <v>130.85</v>
-    <v>129.36000000000001</v>
-    <v>129.36000000000001</v>
+    <v>127.73</v>
+    <v>128.07</v>
+    <v>126.16</v>
+    <v>126.16</v>
     <v>136990900</v>
     <v>HEI.A</v>
     <v>HEICO CORPORATION (XNYS:HEI.A)</v>
-    <v>206723</v>
-    <v>214188</v>
+    <v>273135</v>
+    <v>223261</v>
     <v>1993</v>
   </rv>
   <rv s="2">
@@ -2722,9 +2722,9 @@
       <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq Last Sale</v>
+      <v>Source: Nasdaq</v>
       <v>GMT</v>
-      <v>Real-Time Nasdaq Last Sale</v>
+      <v>Delayed 15 minutes</v>
       <v>from close</v>
       <v>from close</v>
     </spb>
@@ -3144,10 +3144,10 @@
   <dimension ref="A1:AV118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AJ2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AL83" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AP23" sqref="AP23"/>
+      <selection pane="bottomRight" activeCell="AR97" sqref="AR97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5362,15 +5362,15 @@
       </c>
       <c r="AT16" s="30">
         <f>AU101/AM3</f>
-        <v>8.9589108834671762</v>
+        <v>8.6471628684584942</v>
       </c>
       <c r="AU16" s="30">
         <f>AU101/AM28</f>
-        <v>56.256941778630839</v>
+        <v>54.299338878225633</v>
       </c>
       <c r="AV16" s="31">
         <f>AU101/AM106</f>
-        <v>45.389630948393346</v>
+        <v>43.810183676934159</v>
       </c>
     </row>
     <row r="17" spans="1:45" ht="19" x14ac:dyDescent="0.25">
@@ -15040,7 +15040,7 @@
       </c>
       <c r="AU95" s="58" cm="1">
         <f t="array" ref="AU95">_FV(A1,"Beta")</f>
-        <v>1.1809000000000001</v>
+        <v>1.1802999999999999</v>
       </c>
     </row>
     <row r="96" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -15291,7 +15291,7 @@
       </c>
       <c r="AU97" s="36">
         <f>(AU94)+((AU95)*(AU96-AU94))</f>
-        <v>9.1787745000000004E-2</v>
+        <v>9.1761914999999999E-2</v>
       </c>
     </row>
     <row r="98" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -15666,7 +15666,7 @@
       </c>
       <c r="AU100" s="34">
         <f>AU99/AU103</f>
-        <v>1.4459884647308113E-2</v>
+        <v>1.4973387487894611E-2</v>
       </c>
     </row>
     <row r="101" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -15792,7 +15792,7 @@
       </c>
       <c r="AU101" s="50" cm="1">
         <f t="array" ref="AU101">_FV(A1,"Market cap",TRUE)</f>
-        <v>19784160000</v>
+        <v>19095720000</v>
       </c>
     </row>
     <row r="102" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -15918,7 +15918,7 @@
       </c>
       <c r="AU102" s="34">
         <f>AU101/AU103</f>
-        <v>0.98554011535269193</v>
+        <v>0.98502661251210544</v>
       </c>
     </row>
     <row r="103" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -16044,7 +16044,7 @@
       </c>
       <c r="AU103" s="38">
         <f>AU99+AU101</f>
-        <v>20074434000</v>
+        <v>19385994000</v>
       </c>
     </row>
     <row r="104" spans="1:47" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -16334,7 +16334,7 @@
       </c>
       <c r="AU105" s="26">
         <f>(AU100*AU92)+(AU102*AU97)</f>
-        <v>9.0707971405923418E-2</v>
+        <v>9.0644182993489864E-2</v>
       </c>
     </row>
     <row r="106" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -16532,7 +16532,7 @@
       <c r="AQ107" s="40"/>
       <c r="AR107" s="43">
         <f>AR106*(1+AU107)/(AU108-AU107)</f>
-        <v>10590379634.214479</v>
+        <v>10600670622.282715</v>
       </c>
       <c r="AS107" s="44" t="s">
         <v>148</v>
@@ -16563,7 +16563,7 @@
       </c>
       <c r="AR108" s="43">
         <f>AR107+AR106</f>
-        <v>11269279499.758713</v>
+        <v>11279570487.826948</v>
       </c>
       <c r="AS108" s="44" t="s">
         <v>144</v>
@@ -16573,7 +16573,7 @@
       </c>
       <c r="AU108" s="48">
         <f>AU105</f>
-        <v>9.0707971405923418E-2</v>
+        <v>9.0644182993489864E-2</v>
       </c>
     </row>
     <row r="109" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -16588,7 +16588,7 @@
       </c>
       <c r="AO110" s="50">
         <f>NPV(AU108,AN108,AO108,AP108,AQ108,AR108)</f>
-        <v>9051868833.4846783</v>
+        <v>9060929037.048151</v>
       </c>
     </row>
     <row r="111" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -16615,7 +16615,7 @@
       </c>
       <c r="AO113" s="50">
         <f>AO110+AO111-AO112</f>
-        <v>8901098833.4846783</v>
+        <v>8910159037.048151</v>
       </c>
     </row>
     <row r="114" spans="40:41" ht="20" x14ac:dyDescent="0.25">
@@ -16633,7 +16633,7 @@
       </c>
       <c r="AO115" s="53">
         <f>AO113/AO114</f>
-        <v>63.34584813311298</v>
+        <v>63.410326271118571</v>
       </c>
     </row>
     <row r="116" spans="40:41" ht="20" x14ac:dyDescent="0.25">
@@ -16642,7 +16642,7 @@
       </c>
       <c r="AO116" s="59" cm="1">
         <f t="array" ref="AO116">_FV(A1,"Price")</f>
-        <v>129.36000000000001</v>
+        <v>126.16</v>
       </c>
     </row>
     <row r="117" spans="40:41" ht="20" x14ac:dyDescent="0.25">
@@ -16651,7 +16651,7 @@
       </c>
       <c r="AO117" s="55">
         <f>AO115/AO116-1</f>
-        <v>-0.51031348072732707</v>
+        <v>-0.49738168776855918</v>
       </c>
     </row>
     <row r="118" spans="40:41" ht="20" x14ac:dyDescent="0.25">

--- a/Industrials/HEICO.xlsx
+++ b/Industrials/HEICO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Industrials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0041BD65-B334-D041-A146-667C92AD5C23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9C3A53E-85A4-7045-86C0-0BA8AC9A8AF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2531,11 +2531,9 @@
     <v>Powered by Refinitiv</v>
     <v>143.42500000000001</v>
     <v>102.33</v>
-    <v>1.1802999999999999</v>
-    <v>-1.91</v>
-    <v>-1.4914E-2</v>
-    <v>0</v>
-    <v>0</v>
+    <v>1.1850000000000001</v>
+    <v>1.04</v>
+    <v>7.9920000000000008E-3</v>
     <v>USD</v>
     <v>HEICO Corporation is a manufacturer of jet engine and aircraft component replacement parts. The Company operates through two segments: Flight Support Group (FSG) and Electronic Technologies Group (ETG). The FSG segment consists of HEICO Aerospace Holdings Corp. and HEICO Flight Support Corp. and their subsidiaries. The FSG segment designs and manufactures jet engine and aircraft component replacement parts. In addition, the FSG segment repairs, overhauls and distributes jet engine and aircraft components, avionics and instruments for domestic and foreign commercial air carriers and aircraft repair companies, as well as military and business aircraft operators. The ETG segment consists of HEICO Electronic Technologies Corp. and its subsidiaries. ETG segment designs, manufactures and sells various types of electronic, data and microwave, and electro-optical products, including infrared simulation and test equipment, laser rangefinder receivers and electrical power supplies.</v>
     <v>6500</v>
@@ -2543,24 +2541,23 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>3000 Taft St, HOLLYWOOD, FL, 33021 US</v>
-    <v>129.44999999999999</v>
+    <v>133.13999999999999</v>
     <v>Aerospace &amp; Defense</v>
     <v>Stock</v>
-    <v>45072.958333356248</v>
+    <v>45085.958333367969</v>
     <v>0</v>
-    <v>125.88</v>
-    <v>19095720000</v>
+    <v>129.61000000000001</v>
+    <v>19649420000</v>
     <v>HEICO CORPORATION</v>
     <v>HEICO CORPORATION</v>
-    <v>127.73</v>
-    <v>128.07</v>
-    <v>126.16</v>
-    <v>126.16</v>
+    <v>129.61000000000001</v>
+    <v>130.13</v>
+    <v>131.16999999999999</v>
     <v>136990900</v>
     <v>HEI.A</v>
     <v>HEICO CORPORATION (XNYS:HEI.A)</v>
-    <v>273135</v>
-    <v>223261</v>
+    <v>229103</v>
+    <v>281584</v>
     <v>1993</v>
   </rv>
   <rv s="2">
@@ -2592,8 +2589,6 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
-    <k n="Change (Extended hours)"/>
-    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2613,7 +2608,6 @@
     <k n="Open"/>
     <k n="Previous close"/>
     <k n="Price"/>
-    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2630,7 +2624,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="44">
+    <a count="41">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2641,16 +2635,13 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
-      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
-      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
-      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2714,19 +2705,13 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
-      <v>1</v>
-      <v>1</v>
-      <v>5</v>
     </spb>
     <spb s="4">
-      <v>at close</v>
+      <v>Real-Time Nasdaq Last Sale</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq</v>
+      <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
-      <v>from close</v>
-      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2770,9 +2755,6 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
-    <k n="Price (Extended hours)" t="i"/>
-    <k n="Change (Extended hours)" t="i"/>
-    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2780,9 +2762,6 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
-    <k n="Price (Extended hours)" t="s"/>
-    <k n="Change (Extended hours)" t="s"/>
-    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -3147,7 +3126,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="AL83" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AR97" sqref="AR97"/>
+      <selection pane="bottomRight" activeCell="AO99" sqref="AO99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5362,15 +5341,15 @@
       </c>
       <c r="AT16" s="30">
         <f>AU101/AM3</f>
-        <v>8.6471628684584942</v>
+        <v>8.8978962307127318</v>
       </c>
       <c r="AU16" s="30">
         <f>AU101/AM28</f>
-        <v>54.299338878225633</v>
+        <v>55.873803938295303</v>
       </c>
       <c r="AV16" s="31">
         <f>AU101/AM106</f>
-        <v>43.810183676934159</v>
+        <v>45.080504916558453</v>
       </c>
     </row>
     <row r="17" spans="1:45" ht="19" x14ac:dyDescent="0.25">
@@ -15040,7 +15019,7 @@
       </c>
       <c r="AU95" s="58" cm="1">
         <f t="array" ref="AU95">_FV(A1,"Beta")</f>
-        <v>1.1802999999999999</v>
+        <v>1.1850000000000001</v>
       </c>
     </row>
     <row r="96" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -15291,7 +15270,7 @@
       </c>
       <c r="AU97" s="36">
         <f>(AU94)+((AU95)*(AU96-AU94))</f>
-        <v>9.1761914999999999E-2</v>
+        <v>9.1964250000000011E-2</v>
       </c>
     </row>
     <row r="98" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -15666,7 +15645,7 @@
       </c>
       <c r="AU100" s="34">
         <f>AU99/AU103</f>
-        <v>1.4973387487894611E-2</v>
+        <v>1.4557595517764716E-2</v>
       </c>
     </row>
     <row r="101" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -15792,7 +15771,7 @@
       </c>
       <c r="AU101" s="50" cm="1">
         <f t="array" ref="AU101">_FV(A1,"Market cap",TRUE)</f>
-        <v>19095720000</v>
+        <v>19649420000</v>
       </c>
     </row>
     <row r="102" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -15918,7 +15897,7 @@
       </c>
       <c r="AU102" s="34">
         <f>AU101/AU103</f>
-        <v>0.98502661251210544</v>
+        <v>0.9854424044822353</v>
       </c>
     </row>
     <row r="103" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -16044,7 +16023,7 @@
       </c>
       <c r="AU103" s="38">
         <f>AU99+AU101</f>
-        <v>19385994000</v>
+        <v>19939694000</v>
       </c>
     </row>
     <row r="104" spans="1:47" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -16334,7 +16313,7 @@
       </c>
       <c r="AU105" s="26">
         <f>(AU100*AU92)+(AU102*AU97)</f>
-        <v>9.0644182993489864E-2</v>
+        <v>9.0874610481880849E-2</v>
       </c>
     </row>
     <row r="106" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -16532,7 +16511,7 @@
       <c r="AQ107" s="40"/>
       <c r="AR107" s="43">
         <f>AR106*(1+AU107)/(AU108-AU107)</f>
-        <v>10600670622.282715</v>
+        <v>10563589782.048761</v>
       </c>
       <c r="AS107" s="44" t="s">
         <v>148</v>
@@ -16563,7 +16542,7 @@
       </c>
       <c r="AR108" s="43">
         <f>AR107+AR106</f>
-        <v>11279570487.826948</v>
+        <v>11242489647.592995</v>
       </c>
       <c r="AS108" s="44" t="s">
         <v>144</v>
@@ -16573,7 +16552,7 @@
       </c>
       <c r="AU108" s="48">
         <f>AU105</f>
-        <v>9.0644182993489864E-2</v>
+        <v>9.0874610481880849E-2</v>
       </c>
     </row>
     <row r="109" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -16588,7 +16567,7 @@
       </c>
       <c r="AO110" s="50">
         <f>NPV(AU108,AN108,AO108,AP108,AQ108,AR108)</f>
-        <v>9060929037.048151</v>
+        <v>9028283292.3318024</v>
       </c>
     </row>
     <row r="111" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -16615,7 +16594,7 @@
       </c>
       <c r="AO113" s="50">
         <f>AO110+AO111-AO112</f>
-        <v>8910159037.048151</v>
+        <v>8877513292.3318024</v>
       </c>
     </row>
     <row r="114" spans="40:41" ht="20" x14ac:dyDescent="0.25">
@@ -16633,7 +16612,7 @@
       </c>
       <c r="AO115" s="53">
         <f>AO113/AO114</f>
-        <v>63.410326271118571</v>
+        <v>63.177998507358126</v>
       </c>
     </row>
     <row r="116" spans="40:41" ht="20" x14ac:dyDescent="0.25">
@@ -16642,7 +16621,7 @@
       </c>
       <c r="AO116" s="59" cm="1">
         <f t="array" ref="AO116">_FV(A1,"Price")</f>
-        <v>126.16</v>
+        <v>131.16999999999999</v>
       </c>
     </row>
     <row r="117" spans="40:41" ht="20" x14ac:dyDescent="0.25">
@@ -16651,7 +16630,7 @@
       </c>
       <c r="AO117" s="55">
         <f>AO115/AO116-1</f>
-        <v>-0.49738168776855918</v>
+        <v>-0.51835024390212603</v>
       </c>
     </row>
     <row r="118" spans="40:41" ht="20" x14ac:dyDescent="0.25">
